--- a/data/case1/18/P1_1.xlsx
+++ b/data/case1/18/P1_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.33569560490549577</v>
+        <v>0.4003700119637017</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999993409589649</v>
+        <v>-0.0099999997835489296</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.008999999330743691</v>
+        <v>-0.0089999997797303166</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999824322316</v>
+        <v>-0.011999999936474381</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999993401369522</v>
+        <v>-0.0059999997841035935</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999993202595192</v>
+        <v>-0.0059999997781794434</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999200008389</v>
+        <v>-0.019999999732416285</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.01999999919789186</v>
+        <v>0.057979173367773917</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999993168311505</v>
+        <v>-0.0059999997738362509</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999993172610289</v>
+        <v>-0.0059999997702888663</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999993300507413</v>
+        <v>-0.0044999997748469411</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.058272447555567375</v>
+        <v>-0.0059999997690303175</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999993080310787</v>
+        <v>-0.0059999997653159554</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999253899496</v>
+        <v>-0.011999999744618073</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999993027473053</v>
+        <v>-0.0059999997632642632</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999993006081276</v>
+        <v>-0.0059999997624382573</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999992978392314</v>
+        <v>-0.0059999997613608969</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999992717215704</v>
+        <v>-0.008999999751322818</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999993488607544</v>
+        <v>-0.077331130400462023</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.022208265676235683</v>
+        <v>-0.0089999997840504165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999993395259992</v>
+        <v>-0.0089999997837475476</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999993389735522</v>
+        <v>-0.0089999997835032985</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999993249838539</v>
+        <v>-0.0089999997771048612</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999033715874</v>
+        <v>-0.067781415958468649</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999028715429</v>
+        <v>-0.041999999663034693</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999993179147282</v>
+        <v>-0.0059999997772592906</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999993145001262</v>
+        <v>-0.0059999997758977131</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999993002204377</v>
+        <v>-0.0059999997708386488</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999239071357</v>
+        <v>-0.01199999974781818</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.018863797831270457</v>
+        <v>-0.019999999720017314</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999200632885</v>
+        <v>-0.014999999733829483</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999148081372</v>
+        <v>-0.020999999713888329</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.012591305406648878</v>
+        <v>-0.0059999997625501678</v>
       </c>
     </row>
   </sheetData>
